--- a/biology/Zoologie/Ischnura_heterosticta/Ischnura_heterosticta.xlsx
+++ b/biology/Zoologie/Ischnura_heterosticta/Ischnura_heterosticta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischnura heterosticta est une espèce d'insectes odonatess, une demoiselle de la famille des Coenagrionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Australie et en Nouvelle-Calédonie.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve généralement près des eaux calmes ou lentes. L'espèce est aussi tolérante avec les eaux salées.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une demoiselle de petite taille. La plupart des mâles ont les yeux bleus, un thorax bleu, et une queue avec des anneaux bleus. Les femelles sont de couleur verte ou brun clair.
 </t>
